--- a/todo.xlsx
+++ b/todo.xlsx
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,7 +611,9 @@
       <c r="D2" s="4">
         <v>120</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4">
+        <v>20</v>
+      </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
@@ -628,7 +630,9 @@
       <c r="D3" s="4">
         <v>120</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4">
+        <v>20</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
@@ -645,8 +649,12 @@
       <c r="D4" s="4">
         <v>60</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="E4" s="4">
+        <v>60</v>
+      </c>
+      <c r="F4" s="4">
+        <v>20</v>
+      </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -696,7 +704,9 @@
       <c r="D7" s="4">
         <v>60</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4">
+        <v>20</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="54">
   <si>
     <t>Catégorie</t>
   </si>
@@ -177,6 +177,15 @@
   </si>
   <si>
     <t>Estimation(en heure)</t>
+  </si>
+  <si>
+    <t>Ajout utilisateur(livreur, responsable ekaly, restaurant)</t>
+  </si>
+  <si>
+    <t>Ajout livreur</t>
+  </si>
+  <si>
+    <t>Ajout plat(Restaurant)</t>
   </si>
 </sst>
 </file>
@@ -557,16 +566,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="3" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="3" customWidth="1"/>
@@ -812,18 +821,18 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -831,16 +840,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -848,10 +857,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>22</v>
@@ -868,30 +877,30 @@
         <v>40</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -902,13 +911,13 @@
         <v>40</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -919,30 +928,30 @@
         <v>40</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="4">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -953,13 +962,13 @@
         <v>40</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="4">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -967,16 +976,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -984,10 +993,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>21</v>
@@ -1001,16 +1010,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -1021,13 +1030,13 @@
         <v>41</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1038,7 +1047,7 @@
         <v>41</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>21</v>
@@ -1055,7 +1064,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>22</v>
@@ -1072,13 +1081,13 @@
         <v>41</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="4">
         <v>30</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="4">
-        <v>15</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -1089,7 +1098,7 @@
         <v>41</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>21</v>
@@ -1106,7 +1115,7 @@
         <v>41</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>22</v>
@@ -1123,24 +1132,24 @@
         <v>41</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>21</v>
@@ -1157,30 +1166,30 @@
         <v>41</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D34" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -1188,44 +1197,44 @@
     </row>
     <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D36" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>12</v>
@@ -1239,10 +1248,10 @@
     </row>
     <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>21</v>
@@ -1254,12 +1263,12 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>22</v>
@@ -1273,33 +1282,33 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -1307,10 +1316,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>22</v>
@@ -1322,18 +1331,18 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -1341,16 +1350,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D45" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -1358,10 +1367,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>22</v>
@@ -1373,18 +1382,18 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="4">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -1392,16 +1401,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D48" s="4">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -1409,16 +1418,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D49" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -1429,7 +1438,7 @@
         <v>46</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>12</v>
@@ -1446,7 +1455,7 @@
         <v>46</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>21</v>
@@ -1463,7 +1472,7 @@
         <v>46</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>22</v>
@@ -1477,12 +1486,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="D53" s="4">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -1490,38 +1503,85 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="D54" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="4">
+        <v>5</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4">
+        <v>60</v>
+      </c>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4">
+        <v>30</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6">
-        <f>SUM(D2:D54)</f>
-        <v>1205</v>
-      </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6">
+        <f>SUM(D2:D57)</f>
+        <v>1250</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B57" s="3">
-        <f>D55/60</f>
-        <v>18.583333333333332</v>
+      <c r="B60" s="3">
+        <f>D58/60</f>
+        <v>20.833333333333332</v>
       </c>
     </row>
   </sheetData>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="54">
   <si>
     <t>Catégorie</t>
   </si>
@@ -566,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,7 +621,7 @@
         <v>120</v>
       </c>
       <c r="E2" s="4">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -640,7 +640,7 @@
         <v>120</v>
       </c>
       <c r="E3" s="4">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -659,10 +659,10 @@
         <v>60</v>
       </c>
       <c r="E4" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F4" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -679,8 +679,12 @@
       <c r="D5" s="4">
         <v>60</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="E5" s="4">
+        <v>20</v>
+      </c>
+      <c r="F5" s="4">
+        <v>30</v>
+      </c>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -696,8 +700,12 @@
       <c r="D6" s="4">
         <v>30</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="E6" s="4">
+        <v>20</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -714,9 +722,11 @@
         <v>60</v>
       </c>
       <c r="E7" s="4">
-        <v>20</v>
-      </c>
-      <c r="F7" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="F7" s="4">
+        <v>10</v>
+      </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -749,8 +759,12 @@
       <c r="D9" s="4">
         <v>15</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="E9" s="4">
+        <v>15</v>
+      </c>
+      <c r="F9" s="4">
+        <v>10</v>
+      </c>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -800,8 +814,12 @@
       <c r="D12" s="4">
         <v>60</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="E12" s="4">
+        <v>30</v>
+      </c>
+      <c r="F12" s="4">
+        <v>30</v>
+      </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1571,7 +1589,10 @@
         <f>SUM(D2:D57)</f>
         <v>1250</v>
       </c>
-      <c r="E58" s="6"/>
+      <c r="E58" s="6">
+        <f>SUM(E2:E57)</f>
+        <v>335</v>
+      </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
     </row>
@@ -1582,6 +1603,15 @@
       <c r="B60" s="3">
         <f>D58/60</f>
         <v>20.833333333333332</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="3">
+        <f>E58/60</f>
+        <v>5.583333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -568,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,10 +760,10 @@
         <v>15</v>
       </c>
       <c r="E9" s="4">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="F9" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -815,10 +815,10 @@
         <v>60</v>
       </c>
       <c r="E12" s="4">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F12" s="4">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G12" s="4"/>
     </row>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="E58" s="6">
         <f>SUM(E2:E57)</f>
-        <v>335</v>
+        <v>395</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="B61" s="3">
         <f>E58/60</f>
-        <v>5.583333333333333</v>
+        <v>6.583333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -569,7 +569,7 @@
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,10 +680,10 @@
         <v>60</v>
       </c>
       <c r="E5" s="4">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="F5" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="E58" s="6">
         <f>SUM(E2:E57)</f>
-        <v>395</v>
+        <v>465</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="B61" s="3">
         <f>E58/60</f>
-        <v>6.583333333333333</v>
+        <v>7.75</v>
       </c>
     </row>
   </sheetData>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -569,7 +569,7 @@
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,8 +742,12 @@
       <c r="D8" s="4">
         <v>30</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="E8" s="4">
+        <v>35</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -780,8 +784,12 @@
       <c r="D10" s="4">
         <v>10</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="E10" s="4">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4">
+        <v>5</v>
+      </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -797,7 +805,9 @@
       <c r="D11" s="4">
         <v>20</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4">
+        <v>20</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
@@ -815,7 +825,7 @@
         <v>60</v>
       </c>
       <c r="E12" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F12" s="4">
         <v>10</v>
@@ -835,8 +845,12 @@
       <c r="D13" s="4">
         <v>15</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="E13" s="4">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4">
+        <v>5</v>
+      </c>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1591,7 +1605,7 @@
       </c>
       <c r="E58" s="6">
         <f>SUM(E2:E57)</f>
-        <v>465</v>
+        <v>570</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
@@ -1611,7 +1625,7 @@
       </c>
       <c r="B61" s="3">
         <f>E58/60</f>
-        <v>7.75</v>
+        <v>9.5</v>
       </c>
     </row>
   </sheetData>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="53">
   <si>
     <t>Catégorie</t>
   </si>
@@ -180,9 +180,6 @@
   </si>
   <si>
     <t>Ajout utilisateur(livreur, responsable ekaly, restaurant)</t>
-  </si>
-  <si>
-    <t>Ajout livreur</t>
   </si>
   <si>
     <t>Ajout plat(Restaurant)</t>
@@ -764,7 +761,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="4">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -828,7 +825,7 @@
         <v>90</v>
       </c>
       <c r="F12" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G12" s="4"/>
     </row>
@@ -870,12 +867,12 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>21</v>
@@ -883,16 +880,20 @@
       <c r="D15" s="4">
         <v>20</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="E15" s="4">
+        <v>60</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>22</v>
@@ -909,7 +910,7 @@
         <v>40</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>12</v>
@@ -1605,7 +1606,7 @@
       </c>
       <c r="E58" s="6">
         <f>SUM(E2:E57)</f>
-        <v>570</v>
+        <v>635</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
@@ -1625,7 +1626,7 @@
       </c>
       <c r="B61" s="3">
         <f>E58/60</f>
-        <v>9.5</v>
+        <v>10.583333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -565,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,7 +935,9 @@
       <c r="D18" s="4">
         <v>15</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="4">
+        <v>15</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
@@ -1606,7 +1608,7 @@
       </c>
       <c r="E58" s="6">
         <f>SUM(E2:E57)</f>
-        <v>635</v>
+        <v>650</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
@@ -1626,7 +1628,7 @@
       </c>
       <c r="B61" s="3">
         <f>E58/60</f>
-        <v>10.583333333333334</v>
+        <v>10.833333333333334</v>
       </c>
     </row>
   </sheetData>
